--- a/download/17-4 无缝钢管.xlsx
+++ b/download/17-4 无缝钢管.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>编号</t>
   </si>
@@ -100,6 +100,9 @@
     <t>526.52</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Z23010203</t>
   </si>
   <si>
@@ -134,9 +137,6 @@
   </si>
   <si>
     <t>天津</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -596,6 +596,15 @@
       <c r="M2" t="s">
         <v>27</v>
       </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
@@ -605,46 +614,46 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/download/17-4 无缝钢管.xlsx
+++ b/download/17-4 无缝钢管.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="136">
   <si>
     <t>编号</t>
   </si>
@@ -40,7 +40,7 @@
     <t>炉号</t>
   </si>
   <si>
-    <t>出售价格</t>
+    <t>售价</t>
   </si>
   <si>
     <t>入库长度</t>
@@ -55,88 +55,373 @@
     <t>理论重量</t>
   </si>
   <si>
+    <t>来源</t>
+  </si>
+  <si>
     <t>库位</t>
   </si>
   <si>
     <t>区域</t>
   </si>
   <si>
+    <t>切完</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>4_101</t>
   </si>
   <si>
-    <t>M000625</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>固溶+时效1100</t>
-  </si>
-  <si>
-    <t>ZHSD/JT-20-0136/0</t>
+    <t>L659</t>
+  </si>
+  <si>
+    <t>150*10</t>
+  </si>
+  <si>
+    <t>固溶时效H1100</t>
+  </si>
+  <si>
+    <t>ASTM S564/A564M-13</t>
   </si>
   <si>
     <t>中航上大</t>
   </si>
   <si>
-    <t>22306120350</t>
-  </si>
-  <si>
-    <t>25.6</t>
-  </si>
-  <si>
-    <t>4566</t>
+    <t>0D40224</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2100</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>526.52</t>
+    <t>72.5</t>
+  </si>
+  <si>
+    <t>A区-224</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Z23010203</t>
-  </si>
-  <si>
-    <t>203.2*28.575</t>
+    <t>L778</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>B区-109</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>150圆钢打孔</t>
+  </si>
+  <si>
+    <t>L680</t>
+  </si>
+  <si>
+    <t>160*22</t>
+  </si>
+  <si>
+    <t>XTG-JY-036-2020</t>
+  </si>
+  <si>
+    <t>新兴铸管</t>
+  </si>
+  <si>
+    <t>19D2971V</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>109.68</t>
+  </si>
+  <si>
+    <t>L687</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>4400</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>67.38</t>
+  </si>
+  <si>
+    <t>L688</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4220</t>
+  </si>
+  <si>
+    <t>315.94</t>
+  </si>
+  <si>
+    <t>L689</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3955</t>
+  </si>
+  <si>
+    <t>296.1</t>
+  </si>
+  <si>
+    <t>L690</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>4230</t>
+  </si>
+  <si>
+    <t>316.69</t>
+  </si>
+  <si>
+    <t>B区-108</t>
+  </si>
+  <si>
+    <t>L663</t>
+  </si>
+  <si>
+    <t>174*12</t>
+  </si>
+  <si>
+    <t>API SPEC 5CT 10th PSL2 &amp; FS-T-M-011B</t>
+  </si>
+  <si>
+    <t>抚顺特钢</t>
+  </si>
+  <si>
+    <t>1MAL20525/1MAL20504</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>37.15</t>
+  </si>
+  <si>
+    <t>M001672</t>
+  </si>
+  <si>
+    <t>178*15</t>
   </si>
   <si>
     <t>固溶时效，28-32HRC</t>
   </si>
   <si>
-    <t>API SPEC 5CT 10th PSL2 &amp; FS-T-M-011B</t>
-  </si>
-  <si>
-    <t>抚顺特钢</t>
-  </si>
-  <si>
-    <t>1MAL20525/1MAL20504</t>
-  </si>
-  <si>
-    <t>12.9</t>
-  </si>
-  <si>
-    <t>8907</t>
-  </si>
-  <si>
-    <t>4678</t>
-  </si>
-  <si>
-    <t>1067.9</t>
-  </si>
-  <si>
-    <t>A区-123号</t>
-  </si>
-  <si>
-    <t>天津</t>
+    <t>XTG-JY-C-036-2020</t>
+  </si>
+  <si>
+    <t>2MALV21118</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>3560</t>
+  </si>
+  <si>
+    <t>2373</t>
+  </si>
+  <si>
+    <t>143.08</t>
+  </si>
+  <si>
+    <t>A区-228</t>
+  </si>
+  <si>
+    <t>M001665</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>5940</t>
+  </si>
+  <si>
+    <t>358.14</t>
+  </si>
+  <si>
+    <t>M001666</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>M001667</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>M001668</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>A区-225</t>
+  </si>
+  <si>
+    <t>M001669</t>
+  </si>
+  <si>
+    <t>A区-226</t>
+  </si>
+  <si>
+    <t>M001670</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>66.32</t>
+  </si>
+  <si>
+    <t>A区-227</t>
+  </si>
+  <si>
+    <t>M001663</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>5935</t>
+  </si>
+  <si>
+    <t>357.84</t>
+  </si>
+  <si>
+    <t>M001652</t>
+  </si>
+  <si>
+    <t>219*14</t>
+  </si>
+  <si>
+    <t>6535</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>10.97</t>
+  </si>
+  <si>
+    <t>B区-111</t>
+  </si>
+  <si>
+    <t>M001654</t>
+  </si>
+  <si>
+    <t>5910</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>50.6</t>
+  </si>
+  <si>
+    <t>B区-112</t>
+  </si>
+  <si>
+    <t>M001655</t>
+  </si>
+  <si>
+    <t>6400</t>
+  </si>
+  <si>
+    <t>452.95</t>
+  </si>
+  <si>
+    <t>B区-113</t>
+  </si>
+  <si>
+    <t>M001656</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>6625</t>
+  </si>
+  <si>
+    <t>468.88</t>
+  </si>
+  <si>
+    <t>M001657</t>
+  </si>
+  <si>
+    <t>6270</t>
+  </si>
+  <si>
+    <t>443.75</t>
+  </si>
+  <si>
+    <t>M001651</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>17.69</t>
+  </si>
+  <si>
+    <t>B区-110</t>
   </si>
 </sst>
 </file>
@@ -482,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,20 +778,22 @@
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,105 +842,1120 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2">
+        <v>211</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2">
+        <v>206</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2">
-        <v>166</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="P4" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2">
+        <v>207</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2">
+        <v>208</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2">
+        <v>209</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2">
+        <v>210</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2">
+        <v>205</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2">
+        <v>225</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2">
+        <v>219</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2">
+        <v>220</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2">
+        <v>221</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2">
+        <v>222</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="2">
+        <v>223</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="2">
+        <v>224</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2">
+        <v>218</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2">
+        <v>213</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>28</v>
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2">
+        <v>214</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="2">
+        <v>215</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2">
+        <v>216</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2">
+        <v>217</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>129</v>
+      </c>
+      <c r="M22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2">
+        <v>212</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/download/17-4 无缝钢管.xlsx
+++ b/download/17-4 无缝钢管.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="87">
   <si>
     <t>物料号</t>
   </si>
@@ -79,40 +79,25 @@
     <t>0D40224</t>
   </si>
   <si>
-    <t>18</t>
+    <t>0</t>
   </si>
   <si>
     <t>2100</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>A区-224</t>
+    <t>72.5</t>
   </si>
   <si>
     <t>天津</t>
   </si>
   <si>
-    <t>测试</t>
+    <t>否</t>
   </si>
   <si>
     <t>L778</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>A区-228</t>
-  </si>
-  <si>
-    <t>武汉</t>
+    <t>150圆钢打孔</t>
   </si>
   <si>
     <t>L680</t>
@@ -130,40 +115,19 @@
     <t>19D2971V</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1860</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1465</t>
   </si>
   <si>
-    <t>110</t>
+    <t>109.68</t>
   </si>
   <si>
     <t>L687</t>
   </si>
   <si>
-    <t>4400</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>900</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>A区-225</t>
-  </si>
-  <si>
-    <t>更新</t>
+    <t>67.38</t>
   </si>
   <si>
     <t>L688</t>
@@ -172,10 +136,7 @@
     <t>4220</t>
   </si>
   <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>A区-226</t>
+    <t>315.94</t>
   </si>
   <si>
     <t>L689</t>
@@ -184,10 +145,7 @@
     <t>3955</t>
   </si>
   <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>A区-227</t>
+    <t>296.1</t>
   </si>
   <si>
     <t>L690</t>
@@ -196,7 +154,7 @@
     <t>4230</t>
   </si>
   <si>
-    <t>317</t>
+    <t>316.69</t>
   </si>
   <si>
     <t>L663</t>
@@ -205,22 +163,10 @@
     <t>174*12</t>
   </si>
   <si>
-    <t>XYGN4935-2022-01</t>
-  </si>
-  <si>
-    <t>大冶特殊钢</t>
-  </si>
-  <si>
-    <t>2055452A</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>775</t>
   </si>
   <si>
-    <t>37</t>
+    <t>37.15</t>
   </si>
   <si>
     <t>M003167</t>
@@ -238,25 +184,28 @@
     <t>2MALV21118</t>
   </si>
   <si>
-    <t>2211</t>
-  </si>
-  <si>
     <t>935</t>
   </si>
   <si>
-    <t>M001666</t>
+    <t>56.37</t>
+  </si>
+  <si>
+    <t>M001663</t>
+  </si>
+  <si>
+    <t>5935</t>
+  </si>
+  <si>
+    <t>357.84</t>
+  </si>
+  <si>
+    <t>M001665</t>
   </si>
   <si>
     <t>5940</t>
   </si>
   <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>M001667</t>
-  </si>
-  <si>
-    <t>M001668</t>
+    <t>358.14</t>
   </si>
   <si>
     <t>M001669</t>
@@ -265,37 +214,19 @@
     <t>M001670</t>
   </si>
   <si>
-    <t>1190</t>
-  </si>
-  <si>
     <t>1100</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>无缝钢管导入</t>
-  </si>
-  <si>
-    <t>M001672</t>
-  </si>
-  <si>
-    <t>3560</t>
-  </si>
-  <si>
-    <t>2373</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>M001663</t>
-  </si>
-  <si>
-    <t>5935</t>
-  </si>
-  <si>
-    <t>M001665</t>
+    <t>66.32</t>
+  </si>
+  <si>
+    <t>Z23010205</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>43.41</t>
   </si>
   <si>
     <t>M001652</t>
@@ -304,25 +235,19 @@
     <t>219*14</t>
   </si>
   <si>
-    <t>6535</t>
-  </si>
-  <si>
     <t>155</t>
   </si>
   <si>
-    <t>11</t>
+    <t>10.97</t>
   </si>
   <si>
     <t>M001654</t>
   </si>
   <si>
-    <t>5910</t>
-  </si>
-  <si>
-    <t>715</t>
-  </si>
-  <si>
-    <t>51</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>3.54</t>
   </si>
   <si>
     <t>M001655</t>
@@ -331,31 +256,25 @@
     <t>6400</t>
   </si>
   <si>
-    <t>453</t>
+    <t>452.95</t>
   </si>
   <si>
     <t>M001656</t>
   </si>
   <si>
-    <t>6625</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>M001657</t>
-  </si>
-  <si>
-    <t>6270</t>
-  </si>
-  <si>
-    <t>444</t>
+    <t>5090</t>
+  </si>
+  <si>
+    <t>360.24</t>
   </si>
   <si>
     <t>M001651</t>
   </si>
   <si>
     <t>250</t>
+  </si>
+  <si>
+    <t>17.69</t>
   </si>
 </sst>
 </file>
@@ -698,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,27 +713,24 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -832,898 +748,716 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
       <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" t="s">
         <v>70</v>
       </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" t="s">
-        <v>31</v>
-      </c>
       <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" t="s">
-        <v>86</v>
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
         <v>72</v>
       </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/download/17-4 无缝钢管.xlsx
+++ b/download/17-4 无缝钢管.xlsx
@@ -40,7 +40,7 @@
     <t>入库长度</t>
   </si>
   <si>
-    <t>出库次数</t>
+    <t>切分</t>
   </si>
   <si>
     <t>库存长度</t>
